--- a/src/main/resources/excelTemplates/teacherTemplate.xlsx
+++ b/src/main/resources/excelTemplates/teacherTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chnytrcy/Documents/IdeaProject/campus-epidemic-system/src/main/resources/excelTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F27A35-E759-C54C-8DFB-D6318155B6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A436A879-22A1-344C-9367-38FDA5864AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,8 +485,8 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
